--- a/G公司/招聘-ST-SMG.xlsx
+++ b/G公司/招聘-ST-SMG.xlsx
@@ -115,6 +115,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">说明：1、申请由需求提出人发起，审批流程至少审批到各部门总监以上                                                  
+2、邮件需要抄送范老师（colinfan@sncrating.com)和陈醉（chenzui@sncrating.com)                                                                                 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security Token 高级经理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">职位描述： 
 1. 负责项目ST发行的咨询和承做业务的项目管理和执行，包括筹划项目实施方案、产品设计、资产证券化模型设计、ST发型，执行与法务、财务及技术合作伙伴的对接工作。
 2. 负责及时跟进美国等世界各主要金融市场的监管动向，研究SEC相关政策和法律及对STO业务的影响，开展资产ST化的创新业务。
@@ -124,17 +133,8 @@
 2、5年以上的金融行业投资、及项目管理相关经验；
 3、熟悉ABS业务，有ABS发行、承销经验；
 4、有大型金融机构前台业务从业经验，全国性商业银行金融市场部/资金部，券商投行部门优先
-3、通过CFA/FRM优先；
+5、通过CFA/FRM/CPA 优先；
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">说明：1、申请由需求提出人发起，审批流程至少审批到各部门总监以上                                                  
-2、邮件需要抄送范老师（colinfan@sncrating.com)和陈醉（chenzui@sncrating.com)                                                                                 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Security Token 高级经理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +284,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -312,9 +315,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,33 +634,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="13">
         <v>43424</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
@@ -737,71 +737,71 @@
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>43444</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="321.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
